--- a/Assets/Scripts/Data/Excels/IceCreamData.xlsx
+++ b/Assets/Scripts/Data/Excels/IceCreamData.xlsx
@@ -1,58 +1,308 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\game\icecream\Assets\Scripts\Data\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EB8B50-AA02-491B-AFA5-0D2E1A40B3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1065" yWindow="2940" windowWidth="20760" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="IceCreamDatas" sheetId="1" r:id="rId4"/>
+    <sheet name="IceCreamDatas" sheetId="1" r:id="rId1"/>
+    <sheet name="Described" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>UniqueId</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>IceCreamId</t>
-  </si>
-  <si>
-    <t>ScenarioId</t>
-  </si>
-  <si>
-    <t>키가 큰 아저씨</t>
-  </si>
-  <si>
-    <t>땀을 뻘뻘 학생</t>
-  </si>
-  <si>
-    <t>어지러워요 아이</t>
+    <t>Chocolate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanila</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strawberry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grape</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MintChoco</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RainbowSherbet</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalePrice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PurchasePrice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicCone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WafleCone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crepe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprinkles</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amonde&amp;Chocoball</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oreo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stick</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cherry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlicedStrawberry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameString</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>초콜릿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닐라</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>민트초코</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>열대과일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본콘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>와플콘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>크레페</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링클</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아몬드랑 초코볼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오레오</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>막대과자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>체리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기토핑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Choco</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Vanila</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Strawberry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Grape</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_MintChoco</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_RainbowSherbet</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_BasicCone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_WafleCone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Crepe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Springkles</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_AmondAndChocoball</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Oreo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Stick</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Cherry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_SlicedStrawberry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Described</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스크림의 맛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘 종류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>토핑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,40 +310,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -283,84 +541,400 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>300</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>300</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>300</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
-        <v>10000.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>100.0</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>300</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
-        <v>10001.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
-        <v>2.0</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>350</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
-        <v>10002.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
-        <v>3.0</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>400</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1346,6 +1920,58 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE78CE11-13E7-4EF2-87CC-E28843B725FA}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>